--- a/ZenqTask/MakeMyTripTestData.xlsx
+++ b/ZenqTask/MakeMyTripTestData.xlsx
@@ -22,23 +22,30 @@
     <t>Password</t>
   </si>
   <si>
-    <t>addanki.priya@gmail.com</t>
+    <t>testEmail@gmail.com</t>
   </si>
   <si>
-    <t>Haripriya@61</t>
+    <t>afadsfasdf@3e3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,12 +61,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -98,14 +111,17 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>8.331883029E9</v>
+      <c r="B2" s="2">
+        <v>8.331883232E9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>